--- a/biology/Histoire de la zoologie et de la botanique/Walter_Charles_Kraatz/Walter_Charles_Kraatz.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Walter_Charles_Kraatz/Walter_Charles_Kraatz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Charles Kraatz est un zoologiste américain, né le 20 janvier 1893 à Milwaukee et mort le 15 novembre 1970 à Akron, Ohio.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Charles M. et d’Emma née Valentine. Il obtient son Bachelor of Arts à l’université du Wisconsin en 1918, puis son Master of Arts en 1920 et son Ph. D. en 1923 à l’université d’État de l’Ohio avec une thèse intitulée A preliminary general survey of the macrofauna of Mirror Lake. De 1912 à 1914, il est assistant au Muséum public de Milwaukke, puis de 1916 à 1918 assistant en zoologie à l’université du Wisconsin.
 Kraatz se marie avec Julia W. Jaster le 17 juin 1923, union dont naîtra deux fils. Il travaille à l’université de l’Ohio de 1918 à 1923 d’abord comme premier assistant puis comme instructeur, puis à celle de Miami de 1923 à 1924 comme professeur-assistant, puis, à partir de cette date, à celle d’Akron. Il est professeur de biologie  de 1924 à 1928 puis de zoologie de 1928 à 1931. À cette date, il devient professeur associé et dirige le département de biologie de 1934 à 1958, avant d’être nommé professeur émérite en 1959.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.
 Nécrologie de l’Annual Report of the Ohio Academy of Science 1956 (document pdf en anglais)
